--- a/data/pca/factorExposure/factorExposure_2011-09-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.02183271806086255</v>
+        <v>0.01717831709680457</v>
       </c>
       <c r="C2">
-        <v>0.006284170896833461</v>
+        <v>0.008046262488770434</v>
       </c>
       <c r="D2">
-        <v>0.05114188900181164</v>
+        <v>-0.04116823486714594</v>
       </c>
       <c r="E2">
-        <v>-0.06314249761642893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.01760624989136902</v>
+      </c>
+      <c r="F2">
+        <v>0.03648779029438784</v>
+      </c>
+      <c r="G2">
+        <v>0.01301836512448718</v>
+      </c>
+      <c r="H2">
+        <v>-0.006616522377670945</v>
+      </c>
+      <c r="I2">
+        <v>0.007652909439547896</v>
+      </c>
+      <c r="J2">
+        <v>0.05647472539521387</v>
+      </c>
+      <c r="K2">
+        <v>-0.07372175595007335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.08860127349833821</v>
+        <v>0.09943736429198856</v>
       </c>
       <c r="C4">
-        <v>0.0421741258735588</v>
+        <v>0.04891102063140224</v>
       </c>
       <c r="D4">
-        <v>0.05959431075970269</v>
+        <v>-0.04360683357011121</v>
       </c>
       <c r="E4">
-        <v>-0.0240657914106795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01204149367961969</v>
+      </c>
+      <c r="F4">
+        <v>0.07191962426032178</v>
+      </c>
+      <c r="G4">
+        <v>-0.02739266973804221</v>
+      </c>
+      <c r="H4">
+        <v>0.009283704409121886</v>
+      </c>
+      <c r="I4">
+        <v>0.06294362708863341</v>
+      </c>
+      <c r="J4">
+        <v>-0.04553140108131707</v>
+      </c>
+      <c r="K4">
+        <v>0.0414577447885157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1189677831131237</v>
+        <v>0.1311677932748005</v>
       </c>
       <c r="C6">
-        <v>-0.005913382370138366</v>
+        <v>0.003219967150521464</v>
       </c>
       <c r="D6">
-        <v>0.03838569499928075</v>
+        <v>-0.05612497307430828</v>
       </c>
       <c r="E6">
-        <v>-0.06557740921701824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01886984789241019</v>
+      </c>
+      <c r="F6">
+        <v>0.02646877473605503</v>
+      </c>
+      <c r="G6">
+        <v>-0.04882931056020956</v>
+      </c>
+      <c r="H6">
+        <v>0.1989136540351534</v>
+      </c>
+      <c r="I6">
+        <v>-0.1386790357424068</v>
+      </c>
+      <c r="J6">
+        <v>-0.4202469796886245</v>
+      </c>
+      <c r="K6">
+        <v>0.07832701738830029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.07461754597899509</v>
+        <v>0.07254732513854517</v>
       </c>
       <c r="C7">
-        <v>0.010732355954246</v>
+        <v>0.04746258903864815</v>
       </c>
       <c r="D7">
-        <v>0.07318671888114391</v>
+        <v>-0.06186792986760346</v>
       </c>
       <c r="E7">
-        <v>-0.05943386810886216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01038208655435678</v>
+      </c>
+      <c r="F7">
+        <v>0.05090125114210434</v>
+      </c>
+      <c r="G7">
+        <v>0.009982902642344407</v>
+      </c>
+      <c r="H7">
+        <v>-0.01014629824406185</v>
+      </c>
+      <c r="I7">
+        <v>0.05845427149543264</v>
+      </c>
+      <c r="J7">
+        <v>0.0583936466625336</v>
+      </c>
+      <c r="K7">
+        <v>0.05432043166276591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04371479918134552</v>
+        <v>0.04364027180392026</v>
       </c>
       <c r="C8">
-        <v>0.05623831699755822</v>
+        <v>0.02666180499394115</v>
       </c>
       <c r="D8">
-        <v>0.00026950074830445</v>
+        <v>0.004941572487571173</v>
       </c>
       <c r="E8">
-        <v>-0.05791275033461773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03041709327889562</v>
+      </c>
+      <c r="F8">
+        <v>0.06872040583134828</v>
+      </c>
+      <c r="G8">
+        <v>-0.05312098236789189</v>
+      </c>
+      <c r="H8">
+        <v>0.03914518497755008</v>
+      </c>
+      <c r="I8">
+        <v>0.09513675863843743</v>
+      </c>
+      <c r="J8">
+        <v>-0.03713884111827097</v>
+      </c>
+      <c r="K8">
+        <v>0.02659738006303002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.08301609542374921</v>
+        <v>0.08926605260721075</v>
       </c>
       <c r="C9">
-        <v>0.05026424655521</v>
+        <v>0.04889319041636964</v>
       </c>
       <c r="D9">
-        <v>0.05379571224184612</v>
+        <v>-0.04056281151265891</v>
       </c>
       <c r="E9">
-        <v>-0.02265716120917784</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.006989346681175439</v>
+      </c>
+      <c r="F9">
+        <v>0.05856819057721935</v>
+      </c>
+      <c r="G9">
+        <v>-0.04446900707824186</v>
+      </c>
+      <c r="H9">
+        <v>0.0051140598398809</v>
+      </c>
+      <c r="I9">
+        <v>0.07271514503778981</v>
+      </c>
+      <c r="J9">
+        <v>-0.05047977473873431</v>
+      </c>
+      <c r="K9">
+        <v>0.0244563396447488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.01815498540248945</v>
+        <v>0.06301440828576067</v>
       </c>
       <c r="C10">
-        <v>-0.1581990422546239</v>
+        <v>-0.1971645136782837</v>
       </c>
       <c r="D10">
-        <v>-0.02458334579922638</v>
+        <v>-0.01041220458514545</v>
       </c>
       <c r="E10">
-        <v>-0.08198462921229359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.03322226714243251</v>
+      </c>
+      <c r="F10">
+        <v>0.0492382058425266</v>
+      </c>
+      <c r="G10">
+        <v>0.02936917983856286</v>
+      </c>
+      <c r="H10">
+        <v>0.01272973680186151</v>
+      </c>
+      <c r="I10">
+        <v>-0.0452215128363665</v>
+      </c>
+      <c r="J10">
+        <v>0.02452564624441189</v>
+      </c>
+      <c r="K10">
+        <v>-0.02856357898486461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07488121745549446</v>
+        <v>0.07548987669543818</v>
       </c>
       <c r="C11">
-        <v>0.04982417186159481</v>
+        <v>0.05527995192958048</v>
       </c>
       <c r="D11">
-        <v>0.04120355281768633</v>
+        <v>-0.03338159933292271</v>
       </c>
       <c r="E11">
-        <v>-0.03086325222985058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.007797635951624552</v>
+      </c>
+      <c r="F11">
+        <v>0.02571843572885205</v>
+      </c>
+      <c r="G11">
+        <v>-0.06689032233595286</v>
+      </c>
+      <c r="H11">
+        <v>-0.01595567522629894</v>
+      </c>
+      <c r="I11">
+        <v>0.08259381041986369</v>
+      </c>
+      <c r="J11">
+        <v>0.01741358491499063</v>
+      </c>
+      <c r="K11">
+        <v>-0.04400940466297051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07344046757491235</v>
+        <v>0.07353509472199037</v>
       </c>
       <c r="C12">
-        <v>0.03646954711393106</v>
+        <v>0.04461985427218665</v>
       </c>
       <c r="D12">
-        <v>0.0506161867422183</v>
+        <v>-0.03336435451522873</v>
       </c>
       <c r="E12">
-        <v>-0.02671739647683077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.006144375167846115</v>
+      </c>
+      <c r="F12">
+        <v>0.03312684320282303</v>
+      </c>
+      <c r="G12">
+        <v>-0.04209901846879902</v>
+      </c>
+      <c r="H12">
+        <v>0.01354191207702377</v>
+      </c>
+      <c r="I12">
+        <v>0.09986029935349461</v>
+      </c>
+      <c r="J12">
+        <v>0.01671572654775757</v>
+      </c>
+      <c r="K12">
+        <v>-0.02048105156515211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.08101066074553211</v>
+        <v>0.07135167984287606</v>
       </c>
       <c r="C13">
-        <v>0.03150129256558231</v>
+        <v>0.03313248608440568</v>
       </c>
       <c r="D13">
-        <v>0.03452953872478538</v>
+        <v>-0.001154204928952294</v>
       </c>
       <c r="E13">
-        <v>-0.02362601302368106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01710707653666353</v>
+      </c>
+      <c r="F13">
+        <v>0.04395790808482459</v>
+      </c>
+      <c r="G13">
+        <v>-0.02114267199354815</v>
+      </c>
+      <c r="H13">
+        <v>-0.003431004145248809</v>
+      </c>
+      <c r="I13">
+        <v>0.1109065646008984</v>
+      </c>
+      <c r="J13">
+        <v>0.01297829048730376</v>
+      </c>
+      <c r="K13">
+        <v>0.0723779693618638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.034433049430535</v>
+        <v>0.04415547509779354</v>
       </c>
       <c r="C14">
-        <v>-0.008138278583443228</v>
+        <v>0.005597956037498346</v>
       </c>
       <c r="D14">
-        <v>0.02951697426966815</v>
+        <v>-0.03722291355490309</v>
       </c>
       <c r="E14">
-        <v>-0.01167724103545054</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01185248939869948</v>
+      </c>
+      <c r="F14">
+        <v>0.02690859200169596</v>
+      </c>
+      <c r="G14">
+        <v>-0.03890458673542437</v>
+      </c>
+      <c r="H14">
+        <v>-0.04522201149919647</v>
+      </c>
+      <c r="I14">
+        <v>0.05654107355542558</v>
+      </c>
+      <c r="J14">
+        <v>-0.05134974295078503</v>
+      </c>
+      <c r="K14">
+        <v>0.04461637539197886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.0550220608040709</v>
+        <v>0.04492275390205553</v>
       </c>
       <c r="C15">
-        <v>0.009001411059826001</v>
+        <v>0.01345004808658211</v>
       </c>
       <c r="D15">
-        <v>0.01488507800811764</v>
+        <v>0.005695963269617078</v>
       </c>
       <c r="E15">
-        <v>-0.001039540073432745</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.02571024357837356</v>
+      </c>
+      <c r="F15">
+        <v>0.03391121973746404</v>
+      </c>
+      <c r="G15">
+        <v>-0.0244203373784196</v>
+      </c>
+      <c r="H15">
+        <v>-0.009744376274384361</v>
+      </c>
+      <c r="I15">
+        <v>0.01865291800965167</v>
+      </c>
+      <c r="J15">
+        <v>-0.02928290644754353</v>
+      </c>
+      <c r="K15">
+        <v>0.07971395338795241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.06530806782668894</v>
+        <v>0.07495084085278265</v>
       </c>
       <c r="C16">
-        <v>0.05224882971015123</v>
+        <v>0.05558714818137751</v>
       </c>
       <c r="D16">
-        <v>0.04556790571530881</v>
+        <v>-0.0361378360378346</v>
       </c>
       <c r="E16">
-        <v>-0.02157020023874208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.006044342769279713</v>
+      </c>
+      <c r="F16">
+        <v>0.03669620752520936</v>
+      </c>
+      <c r="G16">
+        <v>-0.03935735647811039</v>
+      </c>
+      <c r="H16">
+        <v>-0.00993906412233905</v>
+      </c>
+      <c r="I16">
+        <v>0.05858167054769648</v>
+      </c>
+      <c r="J16">
+        <v>0.01154634379705073</v>
+      </c>
+      <c r="K16">
+        <v>-0.01844702358247496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.06953445178536971</v>
+        <v>0.06309648148590402</v>
       </c>
       <c r="C20">
-        <v>0.0441312339212634</v>
+        <v>0.03755978200549578</v>
       </c>
       <c r="D20">
-        <v>0.02996916170873929</v>
+        <v>-0.01589037985065489</v>
       </c>
       <c r="E20">
-        <v>-0.02151038718005543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.003471962456047921</v>
+      </c>
+      <c r="F20">
+        <v>0.0226415097807318</v>
+      </c>
+      <c r="G20">
+        <v>-0.03234889828238851</v>
+      </c>
+      <c r="H20">
+        <v>-0.01746827682464656</v>
+      </c>
+      <c r="I20">
+        <v>0.1244245267897895</v>
+      </c>
+      <c r="J20">
+        <v>-0.01379720228127846</v>
+      </c>
+      <c r="K20">
+        <v>0.02224898982281841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.03813995136100451</v>
+        <v>0.03068287121800619</v>
       </c>
       <c r="C21">
-        <v>0.01895602047399979</v>
+        <v>0.02344949888823956</v>
       </c>
       <c r="D21">
-        <v>-0.01282716856020846</v>
+        <v>0.02221457556193233</v>
       </c>
       <c r="E21">
-        <v>-0.01385514653447952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.01421055244930725</v>
+      </c>
+      <c r="F21">
+        <v>0.02425330153474795</v>
+      </c>
+      <c r="G21">
+        <v>-0.009163114107446657</v>
+      </c>
+      <c r="H21">
+        <v>0.06935835428232669</v>
+      </c>
+      <c r="I21">
+        <v>0.02470606798429352</v>
+      </c>
+      <c r="J21">
+        <v>-0.03066804230288461</v>
+      </c>
+      <c r="K21">
+        <v>0.0452129648681684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1147403523964009</v>
+        <v>0.09358990471907291</v>
       </c>
       <c r="C22">
-        <v>0.0987185618825745</v>
+        <v>0.05968347351451512</v>
       </c>
       <c r="D22">
-        <v>0.005057959620119468</v>
+        <v>0.2062886239204852</v>
       </c>
       <c r="E22">
-        <v>-0.006248572844179799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.2354103404174534</v>
+      </c>
+      <c r="F22">
+        <v>0.4539080990416993</v>
+      </c>
+      <c r="G22">
+        <v>0.3021096785878234</v>
+      </c>
+      <c r="H22">
+        <v>0.02891781134577213</v>
+      </c>
+      <c r="I22">
+        <v>-0.2156584537365978</v>
+      </c>
+      <c r="J22">
+        <v>0.08574784810606229</v>
+      </c>
+      <c r="K22">
+        <v>-0.03818111163051251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1158416350059129</v>
+        <v>0.09462044677985885</v>
       </c>
       <c r="C23">
-        <v>0.09816672197933336</v>
+        <v>0.06004591668138053</v>
       </c>
       <c r="D23">
-        <v>0.006492471439614636</v>
+        <v>0.2056651028120323</v>
       </c>
       <c r="E23">
-        <v>-0.00753274428473026</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.2368007486175127</v>
+      </c>
+      <c r="F23">
+        <v>0.4580560541017959</v>
+      </c>
+      <c r="G23">
+        <v>0.2967307985455757</v>
+      </c>
+      <c r="H23">
+        <v>0.027814208247892</v>
+      </c>
+      <c r="I23">
+        <v>-0.2188666923822455</v>
+      </c>
+      <c r="J23">
+        <v>0.08071977234250829</v>
+      </c>
+      <c r="K23">
+        <v>-0.03793974824222197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08673415355637175</v>
+        <v>0.0844765225692166</v>
       </c>
       <c r="C24">
-        <v>0.04947959112137843</v>
+        <v>0.05477727137023704</v>
       </c>
       <c r="D24">
-        <v>0.04102848713121616</v>
+        <v>-0.02638046373277033</v>
       </c>
       <c r="E24">
-        <v>-0.03449939279456667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-6.13764888151378e-05</v>
+      </c>
+      <c r="F24">
+        <v>0.04084622503754401</v>
+      </c>
+      <c r="G24">
+        <v>-0.05896013564067065</v>
+      </c>
+      <c r="H24">
+        <v>0.008997235448145669</v>
+      </c>
+      <c r="I24">
+        <v>0.07071247045533323</v>
+      </c>
+      <c r="J24">
+        <v>0.001311314528595851</v>
+      </c>
+      <c r="K24">
+        <v>-0.02921163074674077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.08307440919488372</v>
+        <v>0.07911571110083525</v>
       </c>
       <c r="C25">
-        <v>0.04141823660984217</v>
+        <v>0.0435398973041578</v>
       </c>
       <c r="D25">
-        <v>0.05597854215757136</v>
+        <v>-0.03771772019490206</v>
       </c>
       <c r="E25">
-        <v>-0.04276400548636893</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.007311111740492264</v>
+      </c>
+      <c r="F25">
+        <v>0.04525005002274254</v>
+      </c>
+      <c r="G25">
+        <v>-0.05422876378959062</v>
+      </c>
+      <c r="H25">
+        <v>0.0002805184333709133</v>
+      </c>
+      <c r="I25">
+        <v>0.08411829700563205</v>
+      </c>
+      <c r="J25">
+        <v>-0.001266630622514795</v>
+      </c>
+      <c r="K25">
+        <v>-0.0406856080025747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.0559913132215116</v>
+        <v>0.04791165732980876</v>
       </c>
       <c r="C26">
-        <v>0.01589582721654124</v>
+        <v>0.02521955106732379</v>
       </c>
       <c r="D26">
-        <v>-0.000888868677111661</v>
+        <v>0.02092958114391309</v>
       </c>
       <c r="E26">
-        <v>-0.03735319861592486</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.0007155281412982936</v>
+      </c>
+      <c r="F26">
+        <v>0.02967285053516398</v>
+      </c>
+      <c r="G26">
+        <v>-0.02724163034324894</v>
+      </c>
+      <c r="H26">
+        <v>-0.02546920624208694</v>
+      </c>
+      <c r="I26">
+        <v>0.02829689663898368</v>
+      </c>
+      <c r="J26">
+        <v>-0.01427540676839585</v>
+      </c>
+      <c r="K26">
+        <v>0.1130574693520447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.04070454006595379</v>
+        <v>0.07643771574047731</v>
       </c>
       <c r="C28">
-        <v>-0.2929575643031152</v>
+        <v>-0.29758025099268</v>
       </c>
       <c r="D28">
-        <v>-0.03724384132219859</v>
+        <v>0.01179695422041845</v>
       </c>
       <c r="E28">
-        <v>-0.07750424888591041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.01976044931519464</v>
+      </c>
+      <c r="F28">
+        <v>0.02340854473783504</v>
+      </c>
+      <c r="G28">
+        <v>-0.02901614639324184</v>
+      </c>
+      <c r="H28">
+        <v>0.04569307517121983</v>
+      </c>
+      <c r="I28">
+        <v>-0.0288559946903878</v>
+      </c>
+      <c r="J28">
+        <v>0.02397603673798882</v>
+      </c>
+      <c r="K28">
+        <v>0.06970526289459825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05719716945601935</v>
+        <v>0.05523527028151063</v>
       </c>
       <c r="C29">
-        <v>-0.01479200473037143</v>
+        <v>0.004638612070971164</v>
       </c>
       <c r="D29">
-        <v>0.03929741321467994</v>
+        <v>-0.03311571663498464</v>
       </c>
       <c r="E29">
-        <v>-0.02190860815190842</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01018690038346163</v>
+      </c>
+      <c r="F29">
+        <v>0.04268528909314347</v>
+      </c>
+      <c r="G29">
+        <v>-0.0287636497923416</v>
+      </c>
+      <c r="H29">
+        <v>-0.05948727043497556</v>
+      </c>
+      <c r="I29">
+        <v>0.05146553956438124</v>
+      </c>
+      <c r="J29">
+        <v>-0.02692207747091903</v>
+      </c>
+      <c r="K29">
+        <v>0.04483515849334507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1553302263377264</v>
+        <v>0.1346081004537371</v>
       </c>
       <c r="C30">
-        <v>0.05870564230341307</v>
+        <v>0.05350884381178608</v>
       </c>
       <c r="D30">
-        <v>0.08343639291153905</v>
+        <v>-0.03729767785443286</v>
       </c>
       <c r="E30">
-        <v>-0.05538480084411769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02377355084479563</v>
+      </c>
+      <c r="F30">
+        <v>0.1151381582814974</v>
+      </c>
+      <c r="G30">
+        <v>-0.05865424123028608</v>
+      </c>
+      <c r="H30">
+        <v>0.1045575891485233</v>
+      </c>
+      <c r="I30">
+        <v>0.3313921674446319</v>
+      </c>
+      <c r="J30">
+        <v>0.02709758888448308</v>
+      </c>
+      <c r="K30">
+        <v>0.1816011017349662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05983577808487518</v>
+        <v>0.04952014973899555</v>
       </c>
       <c r="C31">
-        <v>0.00868119034577915</v>
+        <v>0.0334049188233641</v>
       </c>
       <c r="D31">
-        <v>0.03013683694283562</v>
+        <v>-0.01305921352611595</v>
       </c>
       <c r="E31">
-        <v>-0.004007554205230475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01955745786310997</v>
+      </c>
+      <c r="F31">
+        <v>0.01701162851029412</v>
+      </c>
+      <c r="G31">
+        <v>-0.005699234511559634</v>
+      </c>
+      <c r="H31">
+        <v>-0.04952246311227982</v>
+      </c>
+      <c r="I31">
+        <v>0.04081216476590596</v>
+      </c>
+      <c r="J31">
+        <v>-0.03702422042882511</v>
+      </c>
+      <c r="K31">
+        <v>0.02441084847520218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.04925252950535752</v>
+        <v>0.05127255181933425</v>
       </c>
       <c r="C32">
-        <v>0.01581081255070879</v>
+        <v>-0.003960954564779858</v>
       </c>
       <c r="D32">
-        <v>0.01525922712661203</v>
+        <v>0.016613650342026</v>
       </c>
       <c r="E32">
-        <v>-0.004560564029018746</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.04118135132077179</v>
+      </c>
+      <c r="F32">
+        <v>0.07163649521427022</v>
+      </c>
+      <c r="G32">
+        <v>0.00122587349457262</v>
+      </c>
+      <c r="H32">
+        <v>-0.001976472994459774</v>
+      </c>
+      <c r="I32">
+        <v>-0.01771568590215432</v>
+      </c>
+      <c r="J32">
+        <v>0.07228173023943464</v>
+      </c>
+      <c r="K32">
+        <v>0.1036995042491685</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1053067406676824</v>
+        <v>0.1047507249462206</v>
       </c>
       <c r="C33">
-        <v>0.02498898195367025</v>
+        <v>0.04359813508696824</v>
       </c>
       <c r="D33">
-        <v>0.04423940253321536</v>
+        <v>-0.01849311618805273</v>
       </c>
       <c r="E33">
-        <v>-0.01029272543579085</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02781625791337528</v>
+      </c>
+      <c r="F33">
+        <v>0.0210333762817686</v>
+      </c>
+      <c r="G33">
+        <v>-0.01058595119300021</v>
+      </c>
+      <c r="H33">
+        <v>-0.02002279679552437</v>
+      </c>
+      <c r="I33">
+        <v>0.06792879425950935</v>
+      </c>
+      <c r="J33">
+        <v>-0.0275203599592576</v>
+      </c>
+      <c r="K33">
+        <v>0.0226878672049884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06574804692815224</v>
+        <v>0.07059544773453573</v>
       </c>
       <c r="C34">
-        <v>0.05399987730384148</v>
+        <v>0.04673958638835598</v>
       </c>
       <c r="D34">
-        <v>0.02886661383226614</v>
+        <v>-0.02040770929696611</v>
       </c>
       <c r="E34">
-        <v>-0.02353333573519697</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0002957702621204686</v>
+      </c>
+      <c r="F34">
+        <v>0.02800244658109511</v>
+      </c>
+      <c r="G34">
+        <v>-0.0402293254671782</v>
+      </c>
+      <c r="H34">
+        <v>-0.01880016444004221</v>
+      </c>
+      <c r="I34">
+        <v>0.0619392930729216</v>
+      </c>
+      <c r="J34">
+        <v>-0.01541373253694756</v>
+      </c>
+      <c r="K34">
+        <v>-0.05255715377654611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04126788611606971</v>
+        <v>0.03679442623890777</v>
       </c>
       <c r="C35">
-        <v>0.009456233049602013</v>
+        <v>0.01691557190259626</v>
       </c>
       <c r="D35">
-        <v>0.01979125847368063</v>
+        <v>-0.01298733261745303</v>
       </c>
       <c r="E35">
-        <v>0.00354178979755853</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.020578946033691</v>
+      </c>
+      <c r="F35">
+        <v>0.007432432122612501</v>
+      </c>
+      <c r="G35">
+        <v>-0.01025403163138795</v>
+      </c>
+      <c r="H35">
+        <v>-0.02088295551988957</v>
+      </c>
+      <c r="I35">
+        <v>0.05710439608913376</v>
+      </c>
+      <c r="J35">
+        <v>-0.007923490059802285</v>
+      </c>
+      <c r="K35">
+        <v>0.002368469363103102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03938165264536878</v>
+        <v>0.0345260355368135</v>
       </c>
       <c r="C36">
-        <v>0.01456632751152696</v>
+        <v>0.01374491176135906</v>
       </c>
       <c r="D36">
-        <v>0.01492447744860955</v>
+        <v>-0.001179342318770941</v>
       </c>
       <c r="E36">
-        <v>-0.02967368004004101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.000734155867134479</v>
+      </c>
+      <c r="F36">
+        <v>0.04237119486249631</v>
+      </c>
+      <c r="G36">
+        <v>-0.02436335856804032</v>
+      </c>
+      <c r="H36">
+        <v>-0.01124441257382375</v>
+      </c>
+      <c r="I36">
+        <v>0.06732189539589879</v>
+      </c>
+      <c r="J36">
+        <v>-0.02005851815860571</v>
+      </c>
+      <c r="K36">
+        <v>0.03501938203545257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.06436860213266915</v>
+        <v>0.05577198597738373</v>
       </c>
       <c r="C38">
-        <v>0.003044949750759873</v>
+        <v>0.02688627135247624</v>
       </c>
       <c r="D38">
-        <v>-0.01174466027476521</v>
+        <v>0.02439371034304794</v>
       </c>
       <c r="E38">
-        <v>0.01459961014932697</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.0007281763463079496</v>
+      </c>
+      <c r="F38">
+        <v>0.01329277975892512</v>
+      </c>
+      <c r="G38">
+        <v>0.002569936100733506</v>
+      </c>
+      <c r="H38">
+        <v>-0.02477652107772891</v>
+      </c>
+      <c r="I38">
+        <v>-0.01323119030679556</v>
+      </c>
+      <c r="J38">
+        <v>0.03897242412121593</v>
+      </c>
+      <c r="K38">
+        <v>0.05792621284489295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.09567206451415543</v>
+        <v>0.09945910412003613</v>
       </c>
       <c r="C39">
-        <v>0.03419515377911331</v>
+        <v>0.0465471050020095</v>
       </c>
       <c r="D39">
-        <v>0.0484269999441601</v>
+        <v>-0.0340031263376594</v>
       </c>
       <c r="E39">
-        <v>-0.003336649021040533</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01486364825712865</v>
+      </c>
+      <c r="F39">
+        <v>0.03713884120593715</v>
+      </c>
+      <c r="G39">
+        <v>-0.04754798754544992</v>
+      </c>
+      <c r="H39">
+        <v>0.00404055502095042</v>
+      </c>
+      <c r="I39">
+        <v>0.1154708079820475</v>
+      </c>
+      <c r="J39">
+        <v>0.1059946220869227</v>
+      </c>
+      <c r="K39">
+        <v>-0.03118085244929309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.0730772562093583</v>
+        <v>0.05096980793939593</v>
       </c>
       <c r="C40">
-        <v>0.01406510680950969</v>
+        <v>0.04077950013115979</v>
       </c>
       <c r="D40">
-        <v>0.02879721035746381</v>
+        <v>0.02633461301549858</v>
       </c>
       <c r="E40">
-        <v>-0.01621865805870111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04447482094879207</v>
+      </c>
+      <c r="F40">
+        <v>0.05177469729723565</v>
+      </c>
+      <c r="G40">
+        <v>-0.05459527023682382</v>
+      </c>
+      <c r="H40">
+        <v>0.08889064898772363</v>
+      </c>
+      <c r="I40">
+        <v>0.2222821157493319</v>
+      </c>
+      <c r="J40">
+        <v>0.1922424252699325</v>
+      </c>
+      <c r="K40">
+        <v>-0.02029078240807317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.06014836570038503</v>
+        <v>0.04957319866840188</v>
       </c>
       <c r="C41">
-        <v>0.02252070006416829</v>
+        <v>0.03141986280815263</v>
       </c>
       <c r="D41">
-        <v>0.009320831196968532</v>
+        <v>-0.002165001370684792</v>
       </c>
       <c r="E41">
-        <v>0.008527367615719521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.004439432698845336</v>
+      </c>
+      <c r="F41">
+        <v>-0.01358113487668406</v>
+      </c>
+      <c r="G41">
+        <v>-0.01927254436616866</v>
+      </c>
+      <c r="H41">
+        <v>-0.0349456773681561</v>
+      </c>
+      <c r="I41">
+        <v>0.02678166006881681</v>
+      </c>
+      <c r="J41">
+        <v>0.03356188722166291</v>
+      </c>
+      <c r="K41">
+        <v>0.02877341002895924</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.06050890609411842</v>
+        <v>0.06167406714879277</v>
       </c>
       <c r="C43">
-        <v>0.007839917875812211</v>
+        <v>0.03067859954854599</v>
       </c>
       <c r="D43">
-        <v>0.02260735306252404</v>
+        <v>-0.01729433308622624</v>
       </c>
       <c r="E43">
-        <v>-0.01487419812342419</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.005307509205751013</v>
+      </c>
+      <c r="F43">
+        <v>0.02351330733997294</v>
+      </c>
+      <c r="G43">
+        <v>0.004026700091683011</v>
+      </c>
+      <c r="H43">
+        <v>-0.05208280988298711</v>
+      </c>
+      <c r="I43">
+        <v>0.02553729454367598</v>
+      </c>
+      <c r="J43">
+        <v>0.006765314130312942</v>
+      </c>
+      <c r="K43">
+        <v>0.006946181475535703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.09364343987724383</v>
+        <v>0.0949780040646519</v>
       </c>
       <c r="C44">
-        <v>0.04840908269256755</v>
+        <v>0.05097327288899975</v>
       </c>
       <c r="D44">
-        <v>0.03668692521452994</v>
+        <v>-0.0102633820694899</v>
       </c>
       <c r="E44">
-        <v>-0.07886285015442333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01680746001385099</v>
+      </c>
+      <c r="F44">
+        <v>0.1362419684032686</v>
+      </c>
+      <c r="G44">
+        <v>-0.08031003786844601</v>
+      </c>
+      <c r="H44">
+        <v>-0.01853430133214337</v>
+      </c>
+      <c r="I44">
+        <v>0.1483515027332474</v>
+      </c>
+      <c r="J44">
+        <v>0.03047738764742761</v>
+      </c>
+      <c r="K44">
+        <v>-0.018627650420442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.0323713823911948</v>
+        <v>0.04559874853779056</v>
       </c>
       <c r="C46">
-        <v>0.02700311561760434</v>
+        <v>0.02802067245630563</v>
       </c>
       <c r="D46">
-        <v>0.0208354456826438</v>
+        <v>-0.01932176049623117</v>
       </c>
       <c r="E46">
-        <v>-0.01817134197358874</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.005482543861297813</v>
+      </c>
+      <c r="F46">
+        <v>0.04732772880590521</v>
+      </c>
+      <c r="G46">
+        <v>-0.00526028462080148</v>
+      </c>
+      <c r="H46">
+        <v>-0.01022424807479262</v>
+      </c>
+      <c r="I46">
+        <v>0.01240544515131893</v>
+      </c>
+      <c r="J46">
+        <v>-0.03160087502006149</v>
+      </c>
+      <c r="K46">
+        <v>0.04139196297817994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.03764333201068978</v>
+        <v>0.04709966115104543</v>
       </c>
       <c r="C47">
-        <v>-0.01156371311570195</v>
+        <v>0.003898283927656749</v>
       </c>
       <c r="D47">
-        <v>0.01108925677309914</v>
+        <v>-0.004024832511661126</v>
       </c>
       <c r="E47">
-        <v>-0.01606797892552837</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02428801330373436</v>
+      </c>
+      <c r="F47">
+        <v>0.03321074830583373</v>
+      </c>
+      <c r="G47">
+        <v>0.01840322205751854</v>
+      </c>
+      <c r="H47">
+        <v>-0.01409837706629161</v>
+      </c>
+      <c r="I47">
+        <v>0.02334503496740157</v>
+      </c>
+      <c r="J47">
+        <v>-0.04154707559221208</v>
+      </c>
+      <c r="K47">
+        <v>-0.004701778561145628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.05187137832512418</v>
+        <v>0.04559033942587768</v>
       </c>
       <c r="C48">
-        <v>0.01803484736214067</v>
+        <v>0.01554969971221765</v>
       </c>
       <c r="D48">
-        <v>0.03022145893687973</v>
+        <v>0.003036758741630473</v>
       </c>
       <c r="E48">
-        <v>-0.02598777276379754</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02333171674756087</v>
+      </c>
+      <c r="F48">
+        <v>0.04438050200935439</v>
+      </c>
+      <c r="G48">
+        <v>-0.00906817111007048</v>
+      </c>
+      <c r="H48">
+        <v>0.004661595738727137</v>
+      </c>
+      <c r="I48">
+        <v>0.04696102677378934</v>
+      </c>
+      <c r="J48">
+        <v>-0.01847447563601211</v>
+      </c>
+      <c r="K48">
+        <v>0.04134657341630292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.1513020324111748</v>
+        <v>0.2019245312715845</v>
       </c>
       <c r="C49">
-        <v>-0.008903651509113281</v>
+        <v>0.008705969573002613</v>
       </c>
       <c r="D49">
-        <v>0.07534684633569012</v>
+        <v>-0.1485842277062518</v>
       </c>
       <c r="E49">
-        <v>-0.02962252650284438</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.08749933055119312</v>
+      </c>
+      <c r="F49">
+        <v>-0.1114362314115837</v>
+      </c>
+      <c r="G49">
+        <v>0.1286357535912954</v>
+      </c>
+      <c r="H49">
+        <v>0.1564491789019618</v>
+      </c>
+      <c r="I49">
+        <v>-0.1365015996510846</v>
+      </c>
+      <c r="J49">
+        <v>0.07719750011419683</v>
+      </c>
+      <c r="K49">
+        <v>-0.2017865355284133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.06498041677996097</v>
+        <v>0.05713593372265544</v>
       </c>
       <c r="C50">
-        <v>0.01357095923423068</v>
+        <v>0.02850182694950585</v>
       </c>
       <c r="D50">
-        <v>0.03607447993426844</v>
+        <v>-0.01711113081999795</v>
       </c>
       <c r="E50">
-        <v>-0.005526726729455912</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03002995372543322</v>
+      </c>
+      <c r="F50">
+        <v>0.02346854618264375</v>
+      </c>
+      <c r="G50">
+        <v>-0.01741626954524114</v>
+      </c>
+      <c r="H50">
+        <v>-0.05846803395028521</v>
+      </c>
+      <c r="I50">
+        <v>0.03139915994261724</v>
+      </c>
+      <c r="J50">
+        <v>-0.05208794807118169</v>
+      </c>
+      <c r="K50">
+        <v>0.03664284946041544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03204755724551318</v>
+        <v>0.03914180204830784</v>
       </c>
       <c r="C51">
-        <v>-0.009645093711507366</v>
+        <v>-0.004794564406835132</v>
       </c>
       <c r="D51">
-        <v>-0.01287791307062861</v>
+        <v>0.01302835589801298</v>
       </c>
       <c r="E51">
-        <v>0.00145866505284908</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.02583855345797438</v>
+      </c>
+      <c r="F51">
+        <v>-0.003260892058107085</v>
+      </c>
+      <c r="G51">
+        <v>0.02242880793460123</v>
+      </c>
+      <c r="H51">
+        <v>0.01144905589773451</v>
+      </c>
+      <c r="I51">
+        <v>0.00229276516544045</v>
+      </c>
+      <c r="J51">
+        <v>0.03900697265410927</v>
+      </c>
+      <c r="K51">
+        <v>-0.06685641610613251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1547574606902486</v>
+        <v>0.1564625199113309</v>
       </c>
       <c r="C53">
-        <v>-0.04007052857252118</v>
+        <v>0.009719736925695313</v>
       </c>
       <c r="D53">
-        <v>0.05211073551255094</v>
+        <v>-0.05804068138901722</v>
       </c>
       <c r="E53">
-        <v>-0.0002836595526975728</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.0009637778372887231</v>
+      </c>
+      <c r="F53">
+        <v>-0.0272349115418282</v>
+      </c>
+      <c r="G53">
+        <v>0.02060498923549967</v>
+      </c>
+      <c r="H53">
+        <v>-0.2401585845676539</v>
+      </c>
+      <c r="I53">
+        <v>-0.05377677706251362</v>
+      </c>
+      <c r="J53">
+        <v>-0.04403863492695623</v>
+      </c>
+      <c r="K53">
+        <v>-0.05921033434583305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.06240492321672722</v>
+        <v>0.06217673545261516</v>
       </c>
       <c r="C54">
-        <v>0.005778209255672248</v>
+        <v>0.006057829924590977</v>
       </c>
       <c r="D54">
-        <v>0.02427160033251139</v>
+        <v>-0.008850536794209071</v>
       </c>
       <c r="E54">
-        <v>-0.03423331596368887</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.02393093663633701</v>
+      </c>
+      <c r="F54">
+        <v>0.07814789614150119</v>
+      </c>
+      <c r="G54">
+        <v>-0.04714199083401116</v>
+      </c>
+      <c r="H54">
+        <v>0.0009417326920832533</v>
+      </c>
+      <c r="I54">
+        <v>0.1231837599929932</v>
+      </c>
+      <c r="J54">
+        <v>-0.0464128734006379</v>
+      </c>
+      <c r="K54">
+        <v>0.08274088027758797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09660114683244812</v>
+        <v>0.09684333897027214</v>
       </c>
       <c r="C55">
-        <v>-0.01034236916427518</v>
+        <v>0.02278494111040986</v>
       </c>
       <c r="D55">
-        <v>0.04926872285539492</v>
+        <v>-0.04388837861097901</v>
       </c>
       <c r="E55">
-        <v>-0.02307504475312371</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.002262450869351814</v>
+      </c>
+      <c r="F55">
+        <v>0.01459143385901873</v>
+      </c>
+      <c r="G55">
+        <v>-0.02811113524396771</v>
+      </c>
+      <c r="H55">
+        <v>-0.1696188533669221</v>
+      </c>
+      <c r="I55">
+        <v>0.007410243705688502</v>
+      </c>
+      <c r="J55">
+        <v>-0.04819204384628518</v>
+      </c>
+      <c r="K55">
+        <v>-0.04403152602494674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1536783908825421</v>
+        <v>0.1531314678308035</v>
       </c>
       <c r="C56">
-        <v>-0.03573818768109642</v>
+        <v>0.02971313111356508</v>
       </c>
       <c r="D56">
-        <v>0.06834034469946269</v>
+        <v>-0.06369686904796115</v>
       </c>
       <c r="E56">
-        <v>-0.03812543867346596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.003883511559943337</v>
+      </c>
+      <c r="F56">
+        <v>-0.003851761697690608</v>
+      </c>
+      <c r="G56">
+        <v>-0.009546085218678908</v>
+      </c>
+      <c r="H56">
+        <v>-0.2364230872747543</v>
+      </c>
+      <c r="I56">
+        <v>-0.05654837023031519</v>
+      </c>
+      <c r="J56">
+        <v>-0.007071199963936672</v>
+      </c>
+      <c r="K56">
+        <v>-0.02045569011811661</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.1267061356613777</v>
+        <v>0.08454164192590982</v>
       </c>
       <c r="C58">
-        <v>0.05706615957460061</v>
+        <v>0.04518320859761297</v>
       </c>
       <c r="D58">
-        <v>-0.09299514064276516</v>
+        <v>0.1538923341214878</v>
       </c>
       <c r="E58">
-        <v>-0.12461923052362</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.04060140716165049</v>
+      </c>
+      <c r="F58">
+        <v>0.08204863509985755</v>
+      </c>
+      <c r="G58">
+        <v>0.1075736694183887</v>
+      </c>
+      <c r="H58">
+        <v>0.2824114281544659</v>
+      </c>
+      <c r="I58">
+        <v>0.4423381933842263</v>
+      </c>
+      <c r="J58">
+        <v>-0.1100469532383795</v>
+      </c>
+      <c r="K58">
+        <v>-0.2255686526123578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1166091920836123</v>
+        <v>0.1570319203065383</v>
       </c>
       <c r="C59">
-        <v>-0.437399192268441</v>
+        <v>-0.3617692421192861</v>
       </c>
       <c r="D59">
-        <v>-0.07615108977566938</v>
+        <v>0.03246354584193968</v>
       </c>
       <c r="E59">
-        <v>-0.07737294917703116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02984575007604207</v>
+      </c>
+      <c r="F59">
+        <v>-0.001807294855056437</v>
+      </c>
+      <c r="G59">
+        <v>-0.01291699792659457</v>
+      </c>
+      <c r="H59">
+        <v>-0.05657793351132687</v>
+      </c>
+      <c r="I59">
+        <v>0.00405054436517898</v>
+      </c>
+      <c r="J59">
+        <v>0.07090367722612331</v>
+      </c>
+      <c r="K59">
+        <v>-0.0106239037871692</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2212040096848107</v>
+        <v>0.2481321045156138</v>
       </c>
       <c r="C60">
-        <v>-0.03258565875210686</v>
+        <v>0.02876663615668002</v>
       </c>
       <c r="D60">
-        <v>0.06098242099388145</v>
+        <v>-0.1040834815877105</v>
       </c>
       <c r="E60">
-        <v>-0.05622276979740057</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.07919041901295931</v>
+      </c>
+      <c r="F60">
+        <v>-0.06973250154816638</v>
+      </c>
+      <c r="G60">
+        <v>0.02235923331357441</v>
+      </c>
+      <c r="H60">
+        <v>0.09531508502880065</v>
+      </c>
+      <c r="I60">
+        <v>-0.1867436226054424</v>
+      </c>
+      <c r="J60">
+        <v>-0.05427087149737116</v>
+      </c>
+      <c r="K60">
+        <v>-0.1349824074858355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.08137237324741475</v>
+        <v>0.08855082315366193</v>
       </c>
       <c r="C61">
-        <v>0.01710348271638175</v>
+        <v>0.03406748644976665</v>
       </c>
       <c r="D61">
-        <v>0.0352506199169505</v>
+        <v>-0.03287382203910976</v>
       </c>
       <c r="E61">
-        <v>-0.006264735615255313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.002812802619947852</v>
+      </c>
+      <c r="F61">
+        <v>0.02701001645791306</v>
+      </c>
+      <c r="G61">
+        <v>-0.05088613862658885</v>
+      </c>
+      <c r="H61">
+        <v>-0.04478188882613094</v>
+      </c>
+      <c r="I61">
+        <v>0.07875347570375439</v>
+      </c>
+      <c r="J61">
+        <v>0.05204059814191925</v>
+      </c>
+      <c r="K61">
+        <v>-0.007637134162231073</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1496094820312798</v>
+        <v>0.1471174287856221</v>
       </c>
       <c r="C62">
-        <v>-0.03012306562548179</v>
+        <v>0.03304623580363188</v>
       </c>
       <c r="D62">
-        <v>0.02847312926390391</v>
+        <v>-0.0355716014935965</v>
       </c>
       <c r="E62">
-        <v>0.006322783318089339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.00968458475848661</v>
+      </c>
+      <c r="F62">
+        <v>-0.04974472410527156</v>
+      </c>
+      <c r="G62">
+        <v>-0.0298644400576936</v>
+      </c>
+      <c r="H62">
+        <v>-0.2295090298836732</v>
+      </c>
+      <c r="I62">
+        <v>-0.08336374170360322</v>
+      </c>
+      <c r="J62">
+        <v>-0.06545421318060814</v>
+      </c>
+      <c r="K62">
+        <v>0.002498535385744633</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.06175120922671205</v>
+        <v>0.05392672288389855</v>
       </c>
       <c r="C63">
-        <v>0.02273346896964165</v>
+        <v>0.01966060377978787</v>
       </c>
       <c r="D63">
-        <v>0.02499914471216726</v>
+        <v>-0.01193179657694815</v>
       </c>
       <c r="E63">
-        <v>-0.01470330140633311</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02134324881741682</v>
+      </c>
+      <c r="F63">
+        <v>0.02683984695849469</v>
+      </c>
+      <c r="G63">
+        <v>-0.05416420059039203</v>
+      </c>
+      <c r="H63">
+        <v>-0.01279287872528478</v>
+      </c>
+      <c r="I63">
+        <v>0.03544182000434255</v>
+      </c>
+      <c r="J63">
+        <v>-0.0415954169502795</v>
+      </c>
+      <c r="K63">
+        <v>0.04163464583346545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1060837384790269</v>
+        <v>0.1098960034979049</v>
       </c>
       <c r="C64">
-        <v>-0.003212739465318464</v>
+        <v>0.01777767814933187</v>
       </c>
       <c r="D64">
-        <v>0.04953220991049409</v>
+        <v>-0.04780314463006068</v>
       </c>
       <c r="E64">
-        <v>-0.03875778983633012</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.00612104612506661</v>
+      </c>
+      <c r="F64">
+        <v>0.06012513234842726</v>
+      </c>
+      <c r="G64">
+        <v>-0.05249005964300519</v>
+      </c>
+      <c r="H64">
+        <v>0.02275964578554604</v>
+      </c>
+      <c r="I64">
+        <v>0.05500613581751676</v>
+      </c>
+      <c r="J64">
+        <v>0.02695241986845127</v>
+      </c>
+      <c r="K64">
+        <v>0.01073185956511808</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1229817428663609</v>
+        <v>0.1333145850409593</v>
       </c>
       <c r="C65">
-        <v>0.02244310326637502</v>
+        <v>0.005934193282711314</v>
       </c>
       <c r="D65">
-        <v>0.03757767966368133</v>
+        <v>-0.04706357124387305</v>
       </c>
       <c r="E65">
-        <v>-0.05128874311190749</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.007678025652127503</v>
+      </c>
+      <c r="F65">
+        <v>0.01979800338396522</v>
+      </c>
+      <c r="G65">
+        <v>-0.08546359139651932</v>
+      </c>
+      <c r="H65">
+        <v>0.2412410106735336</v>
+      </c>
+      <c r="I65">
+        <v>-0.1446774474145816</v>
+      </c>
+      <c r="J65">
+        <v>-0.6404458983733485</v>
+      </c>
+      <c r="K65">
+        <v>0.04707993393067795</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1612780337695521</v>
+        <v>0.1501387005156987</v>
       </c>
       <c r="C66">
-        <v>0.0629483060309705</v>
+        <v>0.08962737200504937</v>
       </c>
       <c r="D66">
-        <v>0.06485615342591532</v>
+        <v>-0.04950443376387761</v>
       </c>
       <c r="E66">
-        <v>-0.01503874495617998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.009850559605541475</v>
+      </c>
+      <c r="F66">
+        <v>0.01916835797462919</v>
+      </c>
+      <c r="G66">
+        <v>-0.08804517798578347</v>
+      </c>
+      <c r="H66">
+        <v>-0.02498257968696122</v>
+      </c>
+      <c r="I66">
+        <v>0.1793589968267529</v>
+      </c>
+      <c r="J66">
+        <v>0.1729543573289229</v>
+      </c>
+      <c r="K66">
+        <v>0.01400883760811057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.09498079135234604</v>
+        <v>0.09812546321995423</v>
       </c>
       <c r="C67">
-        <v>0.002938612512048218</v>
+        <v>0.03613866905722871</v>
       </c>
       <c r="D67">
-        <v>-0.01544815548119663</v>
+        <v>0.00787945176201285</v>
       </c>
       <c r="E67">
-        <v>-0.003950413855523213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.02653677608388171</v>
+      </c>
+      <c r="F67">
+        <v>0.004442882908237884</v>
+      </c>
+      <c r="G67">
+        <v>0.01064724810555241</v>
+      </c>
+      <c r="H67">
+        <v>-0.02331391016559843</v>
+      </c>
+      <c r="I67">
+        <v>-0.03274167130752731</v>
+      </c>
+      <c r="J67">
+        <v>0.07042722647812029</v>
+      </c>
+      <c r="K67">
+        <v>0.0420411612364953</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.03800735826930587</v>
+        <v>0.0712653205957669</v>
       </c>
       <c r="C68">
-        <v>-0.2529674421609441</v>
+        <v>-0.2809635696885121</v>
       </c>
       <c r="D68">
-        <v>-0.04791239249054036</v>
+        <v>0.02460062991032608</v>
       </c>
       <c r="E68">
-        <v>-0.04132884557984979</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.001074936319167502</v>
+      </c>
+      <c r="F68">
+        <v>0.0406154378026904</v>
+      </c>
+      <c r="G68">
+        <v>0.003673732875230947</v>
+      </c>
+      <c r="H68">
+        <v>-0.01280627932733064</v>
+      </c>
+      <c r="I68">
+        <v>0.02176500804785165</v>
+      </c>
+      <c r="J68">
+        <v>-0.04769431839123217</v>
+      </c>
+      <c r="K68">
+        <v>0.01065836599836151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.06772774857823571</v>
+        <v>0.05716244969999254</v>
       </c>
       <c r="C69">
-        <v>0.01062110359243076</v>
+        <v>0.01642144860736569</v>
       </c>
       <c r="D69">
-        <v>0.001260755070278913</v>
+        <v>0.01876577616287398</v>
       </c>
       <c r="E69">
-        <v>-0.01114464082007869</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01417470361225658</v>
+      </c>
+      <c r="F69">
+        <v>0.008005070127036339</v>
+      </c>
+      <c r="G69">
+        <v>0.0006964644209484532</v>
+      </c>
+      <c r="H69">
+        <v>-0.03148413201140297</v>
+      </c>
+      <c r="I69">
+        <v>0.01543113147441866</v>
+      </c>
+      <c r="J69">
+        <v>-0.005463055968458421</v>
+      </c>
+      <c r="K69">
+        <v>-0.01032090959289559</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.01322457890796004</v>
+        <v>0.03873465514963077</v>
       </c>
       <c r="C70">
-        <v>-0.008383554508183625</v>
+        <v>0.00256082511683803</v>
       </c>
       <c r="D70">
-        <v>-0.00734257927508206</v>
+        <v>0.00267525514462843</v>
       </c>
       <c r="E70">
-        <v>0.01447071481410499</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.01769056724117685</v>
+      </c>
+      <c r="F70">
+        <v>-0.04669524806524287</v>
+      </c>
+      <c r="G70">
+        <v>0.01103091870014001</v>
+      </c>
+      <c r="H70">
+        <v>0.03733522864350054</v>
+      </c>
+      <c r="I70">
+        <v>-0.007049261221837445</v>
+      </c>
+      <c r="J70">
+        <v>0.04430190566562648</v>
+      </c>
+      <c r="K70">
+        <v>0.1430529158809715</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.03566059772457295</v>
+        <v>0.07985354452237405</v>
       </c>
       <c r="C71">
-        <v>-0.289193184057538</v>
+        <v>-0.3035293665830596</v>
       </c>
       <c r="D71">
-        <v>-0.05088698659335854</v>
+        <v>0.00982084734280313</v>
       </c>
       <c r="E71">
-        <v>-0.08678935460523016</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.01767007713921961</v>
+      </c>
+      <c r="F71">
+        <v>0.04584349094477274</v>
+      </c>
+      <c r="G71">
+        <v>-0.001406959890285864</v>
+      </c>
+      <c r="H71">
+        <v>-0.0134313774718681</v>
+      </c>
+      <c r="I71">
+        <v>0.02339349230252576</v>
+      </c>
+      <c r="J71">
+        <v>-0.01635791281673689</v>
+      </c>
+      <c r="K71">
+        <v>0.001104624477308916</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1456929904886079</v>
+        <v>0.1366789710885539</v>
       </c>
       <c r="C72">
-        <v>-0.04697562955830051</v>
+        <v>-0.002968132176363323</v>
       </c>
       <c r="D72">
-        <v>0.01706063515225422</v>
+        <v>0.02316722060322487</v>
       </c>
       <c r="E72">
-        <v>0.2323108424635956</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.140078767190131</v>
+      </c>
+      <c r="F72">
+        <v>-0.108626140124323</v>
+      </c>
+      <c r="G72">
+        <v>-0.1131571691396</v>
+      </c>
+      <c r="H72">
+        <v>-0.007358647861327198</v>
+      </c>
+      <c r="I72">
+        <v>-0.05361142736749801</v>
+      </c>
+      <c r="J72">
+        <v>-0.110327858382702</v>
+      </c>
+      <c r="K72">
+        <v>-0.1219300638364673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2589028750585529</v>
+        <v>0.2535449655979169</v>
       </c>
       <c r="C73">
-        <v>0.04258624889525953</v>
+        <v>0.09669671790658088</v>
       </c>
       <c r="D73">
-        <v>0.08652731044521715</v>
+        <v>-0.1377058344109738</v>
       </c>
       <c r="E73">
-        <v>-0.06681302439354872</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.1990994238981297</v>
+      </c>
+      <c r="F73">
+        <v>-0.2081588474767511</v>
+      </c>
+      <c r="G73">
+        <v>0.2023552682527967</v>
+      </c>
+      <c r="H73">
+        <v>0.2343054055554757</v>
+      </c>
+      <c r="I73">
+        <v>-0.08602273674559502</v>
+      </c>
+      <c r="J73">
+        <v>0.2014714906967402</v>
+      </c>
+      <c r="K73">
+        <v>-0.5148964485623581</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.08778589007848671</v>
+        <v>0.09257264452787042</v>
       </c>
       <c r="C74">
-        <v>-0.02483437651136426</v>
+        <v>0.02570803691295918</v>
       </c>
       <c r="D74">
-        <v>0.05432004282554743</v>
+        <v>-0.05170713020044364</v>
       </c>
       <c r="E74">
-        <v>-0.001579406823031468</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01316182168300778</v>
+      </c>
+      <c r="F74">
+        <v>-0.00669694817308494</v>
+      </c>
+      <c r="G74">
+        <v>0.02821738622964005</v>
+      </c>
+      <c r="H74">
+        <v>-0.1378193502445979</v>
+      </c>
+      <c r="I74">
+        <v>0.01548284395780715</v>
+      </c>
+      <c r="J74">
+        <v>-0.01678315770054139</v>
+      </c>
+      <c r="K74">
+        <v>-0.06415605605631561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.1187705603758232</v>
+        <v>0.1043888783788467</v>
       </c>
       <c r="C75">
-        <v>-0.004983154401721536</v>
+        <v>0.02605547307774421</v>
       </c>
       <c r="D75">
-        <v>0.002869482194859523</v>
+        <v>0.01792754239822825</v>
       </c>
       <c r="E75">
-        <v>-0.01520015548996303</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.006731972998773837</v>
+      </c>
+      <c r="F75">
+        <v>-0.01366070574437825</v>
+      </c>
+      <c r="G75">
+        <v>0.01100437396418652</v>
+      </c>
+      <c r="H75">
+        <v>-0.1252767259801568</v>
+      </c>
+      <c r="I75">
+        <v>-0.03990751177112487</v>
+      </c>
+      <c r="J75">
+        <v>-0.02616196533781485</v>
+      </c>
+      <c r="K75">
+        <v>0.004964431970512072</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1447084908764897</v>
+        <v>0.1351662678943768</v>
       </c>
       <c r="C76">
-        <v>-0.01083152929074968</v>
+        <v>0.04488755073165637</v>
       </c>
       <c r="D76">
-        <v>0.06329639778390031</v>
+        <v>-0.06357175356298286</v>
       </c>
       <c r="E76">
-        <v>-0.03175494828694806</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.003713404883293371</v>
+      </c>
+      <c r="F76">
+        <v>0.01269186562246118</v>
+      </c>
+      <c r="G76">
+        <v>-0.01708140960105701</v>
+      </c>
+      <c r="H76">
+        <v>-0.2809126464954298</v>
+      </c>
+      <c r="I76">
+        <v>-0.02936622474560647</v>
+      </c>
+      <c r="J76">
+        <v>-0.03845131995319051</v>
+      </c>
+      <c r="K76">
+        <v>-0.03591827638836314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1427603574290853</v>
+        <v>0.1011213504613362</v>
       </c>
       <c r="C77">
-        <v>0.06793105907556489</v>
+        <v>0.04548839539898994</v>
       </c>
       <c r="D77">
-        <v>-0.07787843966436508</v>
+        <v>0.1677373300916646</v>
       </c>
       <c r="E77">
-        <v>-0.07887551779124859</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.03406875189010754</v>
+      </c>
+      <c r="F77">
+        <v>0.1292956761608066</v>
+      </c>
+      <c r="G77">
+        <v>-0.7308895616858377</v>
+      </c>
+      <c r="H77">
+        <v>0.1949501433950865</v>
+      </c>
+      <c r="I77">
+        <v>-0.3598006284081187</v>
+      </c>
+      <c r="J77">
+        <v>0.2971986401233098</v>
+      </c>
+      <c r="K77">
+        <v>-0.009372271630015593</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.1209824823502534</v>
+        <v>0.1634013846064689</v>
       </c>
       <c r="C78">
-        <v>0.05517815407929401</v>
+        <v>0.06394744852716927</v>
       </c>
       <c r="D78">
-        <v>0.05342445539635179</v>
+        <v>-0.04228674571922742</v>
       </c>
       <c r="E78">
-        <v>-0.004292591830047477</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.03154724952649926</v>
+      </c>
+      <c r="F78">
+        <v>0.1639347915679081</v>
+      </c>
+      <c r="G78">
+        <v>0.01589508774215398</v>
+      </c>
+      <c r="H78">
+        <v>0.1454821803559978</v>
+      </c>
+      <c r="I78">
+        <v>-0.03185027619837792</v>
+      </c>
+      <c r="J78">
+        <v>-0.05523628091013592</v>
+      </c>
+      <c r="K78">
+        <v>0.01047876918499034</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1509335723859066</v>
+        <v>0.1460387649139529</v>
       </c>
       <c r="C79">
-        <v>0.01068530031610239</v>
+        <v>0.03799582514905479</v>
       </c>
       <c r="D79">
-        <v>0.05803636801896149</v>
+        <v>-0.04130887099295859</v>
       </c>
       <c r="E79">
-        <v>-0.0004813611392192401</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.003408957162035737</v>
+      </c>
+      <c r="F79">
+        <v>-0.006274133512931547</v>
+      </c>
+      <c r="G79">
+        <v>-0.04160559924957524</v>
+      </c>
+      <c r="H79">
+        <v>-0.1972966046462569</v>
+      </c>
+      <c r="I79">
+        <v>-0.06031537096199059</v>
+      </c>
+      <c r="J79">
+        <v>-0.05902349168536992</v>
+      </c>
+      <c r="K79">
+        <v>-0.01263264466664535</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.0385365925133554</v>
+        <v>0.04115213046464575</v>
       </c>
       <c r="C80">
-        <v>0.01412279354776279</v>
+        <v>0.007509773052516267</v>
       </c>
       <c r="D80">
-        <v>0.01641796029797718</v>
+        <v>-0.03753689823025567</v>
       </c>
       <c r="E80">
-        <v>-0.003154562090717648</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02251938045988552</v>
+      </c>
+      <c r="F80">
+        <v>-0.03405303094597736</v>
+      </c>
+      <c r="G80">
+        <v>-0.01038632966924324</v>
+      </c>
+      <c r="H80">
+        <v>0.03919730067951174</v>
+      </c>
+      <c r="I80">
+        <v>0.07730141993319348</v>
+      </c>
+      <c r="J80">
+        <v>-0.03137522274963848</v>
+      </c>
+      <c r="K80">
+        <v>0.002467272036264602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1347549503469318</v>
+        <v>0.1303567288093356</v>
       </c>
       <c r="C81">
-        <v>-0.01477031368434137</v>
+        <v>0.0145941590529794</v>
       </c>
       <c r="D81">
-        <v>0.04844164972610286</v>
+        <v>-0.03861070185335646</v>
       </c>
       <c r="E81">
-        <v>-0.02488821507719297</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.007471572864765546</v>
+      </c>
+      <c r="F81">
+        <v>0.0015066183607622</v>
+      </c>
+      <c r="G81">
+        <v>-0.00906355519474742</v>
+      </c>
+      <c r="H81">
+        <v>-0.1534438511913792</v>
+      </c>
+      <c r="I81">
+        <v>-0.001456972834769134</v>
+      </c>
+      <c r="J81">
+        <v>0.01444214725778354</v>
+      </c>
+      <c r="K81">
+        <v>-0.003094065179090257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1263016276313129</v>
+        <v>0.1244231350930118</v>
       </c>
       <c r="C82">
-        <v>0.01098087787900601</v>
+        <v>0.02719697511096787</v>
       </c>
       <c r="D82">
-        <v>0.03209163115836466</v>
+        <v>-0.03427909161894791</v>
       </c>
       <c r="E82">
-        <v>-0.03798474685025231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01949931916522012</v>
+      </c>
+      <c r="F82">
+        <v>-0.01322022667773604</v>
+      </c>
+      <c r="G82">
+        <v>0.01370053772337195</v>
+      </c>
+      <c r="H82">
+        <v>-0.2828979486576499</v>
+      </c>
+      <c r="I82">
+        <v>-0.01161214199735785</v>
+      </c>
+      <c r="J82">
+        <v>0.003466789958266892</v>
+      </c>
+      <c r="K82">
+        <v>0.01834355647707367</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.05188929438767695</v>
+        <v>0.0768077179093989</v>
       </c>
       <c r="C83">
-        <v>0.01605104073664687</v>
+        <v>0.0270758595475519</v>
       </c>
       <c r="D83">
-        <v>-0.05213440489862459</v>
+        <v>0.02781373042449221</v>
       </c>
       <c r="E83">
-        <v>-0.01358402705242946</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0493033892350958</v>
+      </c>
+      <c r="F83">
+        <v>-0.03948024490589799</v>
+      </c>
+      <c r="G83">
+        <v>0.04424578183264748</v>
+      </c>
+      <c r="H83">
+        <v>0.07452345332536889</v>
+      </c>
+      <c r="I83">
+        <v>0.09061437068649507</v>
+      </c>
+      <c r="J83">
+        <v>0.01915748105127208</v>
+      </c>
+      <c r="K83">
+        <v>0.04974123939314628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.04674018851662394</v>
+        <v>0.0357391060826555</v>
       </c>
       <c r="C84">
-        <v>0.01086650473019604</v>
+        <v>0.04038990561180396</v>
       </c>
       <c r="D84">
-        <v>0.0357924905452512</v>
+        <v>-0.006136309081558823</v>
       </c>
       <c r="E84">
-        <v>0.05692375864693019</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.0617399339847139</v>
+      </c>
+      <c r="F84">
+        <v>0.006658489474345661</v>
+      </c>
+      <c r="G84">
+        <v>0.03472846671313935</v>
+      </c>
+      <c r="H84">
+        <v>-0.0005718171028044856</v>
+      </c>
+      <c r="I84">
+        <v>0.1205278194845297</v>
+      </c>
+      <c r="J84">
+        <v>-0.02158358207620784</v>
+      </c>
+      <c r="K84">
+        <v>0.08505418904462439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1178301245147035</v>
+        <v>0.1233275390450843</v>
       </c>
       <c r="C85">
-        <v>0.02983784809316353</v>
+        <v>0.03635744503070539</v>
       </c>
       <c r="D85">
-        <v>0.02721449643774966</v>
+        <v>-0.0234592652575312</v>
       </c>
       <c r="E85">
-        <v>-0.06702873023469254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.02788901394820147</v>
+      </c>
+      <c r="F85">
+        <v>0.0261263171419276</v>
+      </c>
+      <c r="G85">
+        <v>-0.0136739111617904</v>
+      </c>
+      <c r="H85">
+        <v>-0.1970414015089689</v>
+      </c>
+      <c r="I85">
+        <v>-0.02830721562767229</v>
+      </c>
+      <c r="J85">
+        <v>-0.06867348265056601</v>
+      </c>
+      <c r="K85">
+        <v>-0.02248286123359435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.07603519272780573</v>
+        <v>0.06581878700858115</v>
       </c>
       <c r="C86">
-        <v>0.05750197965178638</v>
+        <v>0.03095212684913777</v>
       </c>
       <c r="D86">
-        <v>0.0243260053587824</v>
+        <v>0.009412369678607401</v>
       </c>
       <c r="E86">
-        <v>-0.01645395046861314</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.004233542397631407</v>
+      </c>
+      <c r="F86">
+        <v>0.0424993563539427</v>
+      </c>
+      <c r="G86">
+        <v>0.006653433822702221</v>
+      </c>
+      <c r="H86">
+        <v>0.04262470506966502</v>
+      </c>
+      <c r="I86">
+        <v>-0.07007566625673195</v>
+      </c>
+      <c r="J86">
+        <v>-0.009421571701840121</v>
+      </c>
+      <c r="K86">
+        <v>0.03907614845138752</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1320008064377255</v>
+        <v>0.1296677032259895</v>
       </c>
       <c r="C87">
-        <v>0.05994190942862924</v>
+        <v>0.06987917867906733</v>
       </c>
       <c r="D87">
-        <v>0.0706018596757657</v>
+        <v>-0.01748453639492698</v>
       </c>
       <c r="E87">
-        <v>-0.03635466245473065</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.02671962794585503</v>
+      </c>
+      <c r="F87">
+        <v>0.09299211577961115</v>
+      </c>
+      <c r="G87">
+        <v>-0.170021792439114</v>
+      </c>
+      <c r="H87">
+        <v>0.06576571502901563</v>
+      </c>
+      <c r="I87">
+        <v>-0.009255701785698291</v>
+      </c>
+      <c r="J87">
+        <v>0.0249049923957389</v>
+      </c>
+      <c r="K87">
+        <v>-0.004424232560219728</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06021119987074081</v>
+        <v>0.0654513238249913</v>
       </c>
       <c r="C88">
-        <v>0.01960485724983542</v>
+        <v>0.03633212356700375</v>
       </c>
       <c r="D88">
-        <v>0.01789769740140504</v>
+        <v>-0.02669925580016493</v>
       </c>
       <c r="E88">
-        <v>-0.008919214541328961</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01102573469074218</v>
+      </c>
+      <c r="F88">
+        <v>0.002084866399942584</v>
+      </c>
+      <c r="G88">
+        <v>-0.02144330923573593</v>
+      </c>
+      <c r="H88">
+        <v>-0.01874138443534461</v>
+      </c>
+      <c r="I88">
+        <v>0.04422440599165018</v>
+      </c>
+      <c r="J88">
+        <v>0.01075781093109952</v>
+      </c>
+      <c r="K88">
+        <v>0.02064694518392646</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.06725344837024998</v>
+        <v>0.1289798582167636</v>
       </c>
       <c r="C89">
-        <v>-0.3311865190298904</v>
+        <v>-0.3817338662654113</v>
       </c>
       <c r="D89">
-        <v>-0.04657163596658685</v>
+        <v>-6.039330575013204e-05</v>
       </c>
       <c r="E89">
-        <v>-0.1098428235078713</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.0572052697561415</v>
+      </c>
+      <c r="F89">
+        <v>0.06896473935795179</v>
+      </c>
+      <c r="G89">
+        <v>0.02214342042533927</v>
+      </c>
+      <c r="H89">
+        <v>0.008483297333491027</v>
+      </c>
+      <c r="I89">
+        <v>0.0821007195298647</v>
+      </c>
+      <c r="J89">
+        <v>0.05489680185680885</v>
+      </c>
+      <c r="K89">
+        <v>-0.02386022095627331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.06050238037455329</v>
+        <v>0.09363333722470615</v>
       </c>
       <c r="C90">
-        <v>-0.2859221848243789</v>
+        <v>-0.2841083047926203</v>
       </c>
       <c r="D90">
-        <v>-0.06548519241689449</v>
+        <v>0.02960062775993002</v>
       </c>
       <c r="E90">
-        <v>-0.06138590312490383</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02009997933110045</v>
+      </c>
+      <c r="F90">
+        <v>0.02544424982324238</v>
+      </c>
+      <c r="G90">
+        <v>-0.01982771073780993</v>
+      </c>
+      <c r="H90">
+        <v>0.04499809068610994</v>
+      </c>
+      <c r="I90">
+        <v>0.08199853658429943</v>
+      </c>
+      <c r="J90">
+        <v>0.03008863236608382</v>
+      </c>
+      <c r="K90">
+        <v>-0.0322815488815168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.1047154898872633</v>
+        <v>0.09162857615224486</v>
       </c>
       <c r="C91">
-        <v>0.002615321091257352</v>
+        <v>0.03226416297245682</v>
       </c>
       <c r="D91">
-        <v>0.03207718693821707</v>
+        <v>-0.01242589383307344</v>
       </c>
       <c r="E91">
-        <v>-0.01537160996321628</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.004622444744895746</v>
+      </c>
+      <c r="F91">
+        <v>-0.001972893103380488</v>
+      </c>
+      <c r="G91">
+        <v>0.01426881151996001</v>
+      </c>
+      <c r="H91">
+        <v>-0.08865465584630382</v>
+      </c>
+      <c r="I91">
+        <v>-0.01823108096489474</v>
+      </c>
+      <c r="J91">
+        <v>-0.007492630980538321</v>
+      </c>
+      <c r="K91">
+        <v>-0.01603120875247522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.04222684075538944</v>
+        <v>0.0909016623655544</v>
       </c>
       <c r="C92">
-        <v>-0.333205185308574</v>
+        <v>-0.3412083282059286</v>
       </c>
       <c r="D92">
-        <v>-0.04083185438364197</v>
+        <v>0.003787234477118906</v>
       </c>
       <c r="E92">
-        <v>-0.08896116088997394</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.02038612589163009</v>
+      </c>
+      <c r="F92">
+        <v>0.05625966175756597</v>
+      </c>
+      <c r="G92">
+        <v>-0.0001430368172799662</v>
+      </c>
+      <c r="H92">
+        <v>-0.01157314299044293</v>
+      </c>
+      <c r="I92">
+        <v>0.02398753058845208</v>
+      </c>
+      <c r="J92">
+        <v>0.01544196441951269</v>
+      </c>
+      <c r="K92">
+        <v>-0.00190797062047957</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.03672155806084909</v>
+        <v>0.09115998935913666</v>
       </c>
       <c r="C93">
-        <v>-0.2994034915571994</v>
+        <v>-0.3212997749655709</v>
       </c>
       <c r="D93">
-        <v>-0.04777329999978087</v>
+        <v>0.002110325379197388</v>
       </c>
       <c r="E93">
-        <v>-0.05910234641073118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01949938775735315</v>
+      </c>
+      <c r="F93">
+        <v>0.01505053072663486</v>
+      </c>
+      <c r="G93">
+        <v>-0.001010269755754438</v>
+      </c>
+      <c r="H93">
+        <v>0.01129524372801601</v>
+      </c>
+      <c r="I93">
+        <v>0.001799961482124696</v>
+      </c>
+      <c r="J93">
+        <v>-0.004851149684906127</v>
+      </c>
+      <c r="K93">
+        <v>0.03522867872056076</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.1270110112107251</v>
+        <v>0.1224026523622047</v>
       </c>
       <c r="C94">
-        <v>0.04577171235461482</v>
+        <v>0.05085130753880231</v>
       </c>
       <c r="D94">
-        <v>0.03688292797933899</v>
+        <v>-0.01422531875114909</v>
       </c>
       <c r="E94">
-        <v>-0.03155666072503361</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.01530867305494469</v>
+      </c>
+      <c r="F94">
+        <v>0.02318335323859765</v>
+      </c>
+      <c r="G94">
+        <v>0.05424411164735622</v>
+      </c>
+      <c r="H94">
+        <v>-0.1200563527939098</v>
+      </c>
+      <c r="I94">
+        <v>-0.02166975631531749</v>
+      </c>
+      <c r="J94">
+        <v>-0.02136377698611156</v>
+      </c>
+      <c r="K94">
+        <v>-0.01930655135774099</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1355870214120534</v>
+        <v>0.1443554203997564</v>
       </c>
       <c r="C95">
-        <v>0.06135817419261711</v>
+        <v>0.06006390403806169</v>
       </c>
       <c r="D95">
-        <v>0.08441924175437793</v>
+        <v>-0.04470539791789739</v>
       </c>
       <c r="E95">
-        <v>-0.06769156333656827</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.01040359298548139</v>
+      </c>
+      <c r="F95">
+        <v>0.05639907279776106</v>
+      </c>
+      <c r="G95">
+        <v>-0.0277724385342944</v>
+      </c>
+      <c r="H95">
+        <v>0.1538165664205172</v>
+      </c>
+      <c r="I95">
+        <v>0.02526683668311715</v>
+      </c>
+      <c r="J95">
+        <v>-0.008230975593222337</v>
+      </c>
+      <c r="K95">
+        <v>0.03553693034331754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2346040870952862</v>
+        <v>0.1795066377152427</v>
       </c>
       <c r="C97">
-        <v>-0.1592281643278419</v>
+        <v>-0.04456965277548521</v>
       </c>
       <c r="D97">
-        <v>0.01285730136530349</v>
+        <v>0.2230176663318646</v>
       </c>
       <c r="E97">
-        <v>0.8910842019781092</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.7840766908529714</v>
+      </c>
+      <c r="F97">
+        <v>-0.4689946201837421</v>
+      </c>
+      <c r="G97">
+        <v>-0.03737538370730909</v>
+      </c>
+      <c r="H97">
+        <v>0.06079279108652943</v>
+      </c>
+      <c r="I97">
+        <v>0.05231873303056118</v>
+      </c>
+      <c r="J97">
+        <v>0.02489315607167693</v>
+      </c>
+      <c r="K97">
+        <v>-0.05024004142038426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.2787253960672965</v>
+        <v>0.2855393543876364</v>
       </c>
       <c r="C98">
-        <v>0.01979531150796827</v>
+        <v>0.0780078250928732</v>
       </c>
       <c r="D98">
-        <v>0.009948238989499522</v>
+        <v>-0.06650710543997068</v>
       </c>
       <c r="E98">
-        <v>-0.03812162482083895</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1365513096563216</v>
+      </c>
+      <c r="F98">
+        <v>-0.2720209680254184</v>
+      </c>
+      <c r="G98">
+        <v>0.2887715583748539</v>
+      </c>
+      <c r="H98">
+        <v>0.2091938031514701</v>
+      </c>
+      <c r="I98">
+        <v>-0.1588894003240854</v>
+      </c>
+      <c r="J98">
+        <v>0.2337322674398259</v>
+      </c>
+      <c r="K98">
+        <v>0.6456117922184048</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.2464730012759299</v>
+        <v>0.1638246858086874</v>
       </c>
       <c r="C99">
-        <v>0.1891974783959947</v>
+        <v>0.0920912316299741</v>
       </c>
       <c r="D99">
-        <v>-0.9127011514982508</v>
+        <v>0.8281934321488027</v>
       </c>
       <c r="E99">
-        <v>-0.006183090389867757</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.3823983776366343</v>
+      </c>
+      <c r="F99">
+        <v>-0.1752124292134458</v>
+      </c>
+      <c r="G99">
+        <v>0.02519399882815249</v>
+      </c>
+      <c r="H99">
+        <v>-0.1150116320086225</v>
+      </c>
+      <c r="I99">
+        <v>0.05055828071382042</v>
+      </c>
+      <c r="J99">
+        <v>-0.1076882671087592</v>
+      </c>
+      <c r="K99">
+        <v>-0.006914843167914218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05729469072713979</v>
+        <v>0.05530907363902278</v>
       </c>
       <c r="C101">
-        <v>-0.01469177974565368</v>
+        <v>0.004931107753295664</v>
       </c>
       <c r="D101">
-        <v>0.04005131971200736</v>
+        <v>-0.03401693108344563</v>
       </c>
       <c r="E101">
-        <v>-0.02164735790404293</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01024611919533313</v>
+      </c>
+      <c r="F101">
+        <v>0.04274024360924623</v>
+      </c>
+      <c r="G101">
+        <v>-0.02758727845806754</v>
+      </c>
+      <c r="H101">
+        <v>-0.0582264216496374</v>
+      </c>
+      <c r="I101">
+        <v>0.05154274603710897</v>
+      </c>
+      <c r="J101">
+        <v>-0.02471411469589796</v>
+      </c>
+      <c r="K101">
+        <v>0.0428726649571262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
